--- a/SchedulingData/static6/pso/scheduling1_2.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_2.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>87.09999999999999</v>
+        <v>77.66</v>
       </c>
       <c r="E2" t="n">
-        <v>24.96</v>
+        <v>24.904</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>86.40000000000001</v>
+        <v>78.88</v>
       </c>
       <c r="E3" t="n">
-        <v>24.54</v>
+        <v>26.752</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>77.66</v>
       </c>
       <c r="D4" t="n">
-        <v>78.68000000000001</v>
+        <v>134.16</v>
       </c>
       <c r="E4" t="n">
-        <v>27.272</v>
+        <v>21.364</v>
       </c>
     </row>
     <row r="5">
@@ -523,14 +523,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>82.66</v>
+        <v>77.66</v>
       </c>
       <c r="E5" t="n">
         <v>24.904</v>
@@ -542,17 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>86.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>140.34</v>
+        <v>52.6</v>
       </c>
       <c r="E6" t="n">
-        <v>20.276</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>134.16</v>
       </c>
       <c r="D7" t="n">
-        <v>64.42</v>
+        <v>212.38</v>
       </c>
       <c r="E7" t="n">
-        <v>25.728</v>
+        <v>17.152</v>
       </c>
     </row>
     <row r="8">
@@ -580,188 +580,188 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>77.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>25.92</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>78.68000000000001</v>
+        <v>77.66</v>
       </c>
       <c r="D9" t="n">
-        <v>125.58</v>
+        <v>153</v>
       </c>
       <c r="E9" t="n">
-        <v>23.712</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>82.66</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>150.16</v>
+        <v>158.5</v>
       </c>
       <c r="E10" t="n">
-        <v>21.264</v>
+        <v>19.92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>77.2</v>
+        <v>212.38</v>
       </c>
       <c r="D11" t="n">
-        <v>136.7</v>
+        <v>270.92</v>
       </c>
       <c r="E11" t="n">
-        <v>23.6</v>
+        <v>12.928</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>64.42</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>112.54</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>22.536</v>
+        <v>26.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>136.7</v>
+        <v>78.88</v>
       </c>
       <c r="D13" t="n">
-        <v>250.5</v>
+        <v>164.48</v>
       </c>
       <c r="E13" t="n">
-        <v>18.8</v>
+        <v>21.292</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>125.58</v>
+        <v>270.92</v>
       </c>
       <c r="D14" t="n">
-        <v>173.94</v>
+        <v>325.28</v>
       </c>
       <c r="E14" t="n">
-        <v>20.016</v>
+        <v>9.132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>87.09999999999999</v>
+        <v>325.28</v>
       </c>
       <c r="D15" t="n">
-        <v>135.62</v>
+        <v>374.78</v>
       </c>
       <c r="E15" t="n">
-        <v>20.748</v>
+        <v>6.812</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>150.16</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>224.16</v>
+        <v>117.54</v>
       </c>
       <c r="E16" t="n">
-        <v>15.984</v>
+        <v>23.536</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>135.62</v>
+        <v>374.78</v>
       </c>
       <c r="D17" t="n">
-        <v>187.7</v>
+        <v>419.16</v>
       </c>
       <c r="E17" t="n">
-        <v>17.16</v>
+        <v>4.004</v>
       </c>
     </row>
     <row r="18">
@@ -770,150 +770,150 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>112.54</v>
+        <v>419.16</v>
       </c>
       <c r="D18" t="n">
-        <v>165.28</v>
+        <v>486.08</v>
       </c>
       <c r="E18" t="n">
-        <v>18.392</v>
+        <v>1.412</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>250.5</v>
+        <v>486.08</v>
       </c>
       <c r="D19" t="n">
-        <v>319.04</v>
+        <v>569.86</v>
       </c>
       <c r="E19" t="n">
-        <v>14.576</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>319.04</v>
+        <v>117.54</v>
       </c>
       <c r="D20" t="n">
-        <v>377.52</v>
+        <v>185.36</v>
       </c>
       <c r="E20" t="n">
-        <v>11.328</v>
+        <v>18.384</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>165.28</v>
+        <v>158.5</v>
       </c>
       <c r="D21" t="n">
-        <v>236.48</v>
+        <v>230.2</v>
       </c>
       <c r="E21" t="n">
-        <v>14.852</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>187.7</v>
+        <v>153</v>
       </c>
       <c r="D22" t="n">
-        <v>271.7</v>
+        <v>201.1</v>
       </c>
       <c r="E22" t="n">
-        <v>13.36</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>173.94</v>
+        <v>185.36</v>
       </c>
       <c r="D23" t="n">
-        <v>258.68</v>
+        <v>254.38</v>
       </c>
       <c r="E23" t="n">
-        <v>16.152</v>
+        <v>14.112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>140.34</v>
+        <v>230.2</v>
       </c>
       <c r="D24" t="n">
-        <v>205.68</v>
+        <v>298.46</v>
       </c>
       <c r="E24" t="n">
-        <v>15.852</v>
+        <v>12.144</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>236.48</v>
+        <v>52.6</v>
       </c>
       <c r="D25" t="n">
-        <v>270.98</v>
+        <v>126.96</v>
       </c>
       <c r="E25" t="n">
-        <v>12.532</v>
+        <v>20.604</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>205.68</v>
+        <v>126.96</v>
       </c>
       <c r="D26" t="n">
-        <v>267.8</v>
+        <v>201.06</v>
       </c>
       <c r="E26" t="n">
-        <v>13.26</v>
+        <v>16.804</v>
       </c>
     </row>
     <row r="27">
@@ -941,74 +941,74 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>267.8</v>
+        <v>201.06</v>
       </c>
       <c r="D27" t="n">
-        <v>330.4</v>
+        <v>259.9</v>
       </c>
       <c r="E27" t="n">
-        <v>9.6</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>270.98</v>
+        <v>164.48</v>
       </c>
       <c r="D28" t="n">
-        <v>319.52</v>
+        <v>228.4</v>
       </c>
       <c r="E28" t="n">
-        <v>9.308</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>258.68</v>
+        <v>259.9</v>
       </c>
       <c r="D29" t="n">
-        <v>307.88</v>
+        <v>330.94</v>
       </c>
       <c r="E29" t="n">
-        <v>12.852</v>
+        <v>8.536</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>224.16</v>
+        <v>298.46</v>
       </c>
       <c r="D30" t="n">
-        <v>280.5</v>
+        <v>337.86</v>
       </c>
       <c r="E30" t="n">
-        <v>12.96</v>
+        <v>9.824</v>
       </c>
     </row>
     <row r="31">
@@ -1017,36 +1017,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>280.5</v>
+        <v>201.1</v>
       </c>
       <c r="D31" t="n">
-        <v>323.7</v>
+        <v>258.84</v>
       </c>
       <c r="E31" t="n">
-        <v>9.279999999999999</v>
+        <v>12.656</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>323.7</v>
+        <v>228.4</v>
       </c>
       <c r="D32" t="n">
-        <v>411.94</v>
+        <v>301</v>
       </c>
       <c r="E32" t="n">
-        <v>6.056</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="33">
@@ -1055,36 +1055,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>271.7</v>
+        <v>254.38</v>
       </c>
       <c r="D33" t="n">
-        <v>359.7</v>
+        <v>325.56</v>
       </c>
       <c r="E33" t="n">
-        <v>9.640000000000001</v>
+        <v>11.604</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>330.4</v>
+        <v>337.86</v>
       </c>
       <c r="D34" t="n">
-        <v>374.42</v>
+        <v>389.94</v>
       </c>
       <c r="E34" t="n">
-        <v>6.828</v>
+        <v>6.236</v>
       </c>
     </row>
     <row r="35">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>411.94</v>
+        <v>258.84</v>
       </c>
       <c r="D35" t="n">
-        <v>484.76</v>
+        <v>316.18</v>
       </c>
       <c r="E35" t="n">
-        <v>0.904</v>
+        <v>9.532</v>
       </c>
     </row>
     <row r="36">
@@ -1112,109 +1112,109 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>484.76</v>
+        <v>316.18</v>
       </c>
       <c r="D36" t="n">
-        <v>569.55</v>
+        <v>373.68</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>5.892</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>307.88</v>
+        <v>325.56</v>
       </c>
       <c r="D37" t="n">
-        <v>389.94</v>
+        <v>364.2</v>
       </c>
       <c r="E37" t="n">
-        <v>7.756</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>319.52</v>
+        <v>373.68</v>
       </c>
       <c r="D38" t="n">
-        <v>378.68</v>
+        <v>430.22</v>
       </c>
       <c r="E38" t="n">
-        <v>5.512</v>
+        <v>2.868</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>377.52</v>
+        <v>330.94</v>
       </c>
       <c r="D39" t="n">
-        <v>439.66</v>
+        <v>384.06</v>
       </c>
       <c r="E39" t="n">
-        <v>7.744</v>
+        <v>5.344</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>374.42</v>
+        <v>364.2</v>
       </c>
       <c r="D40" t="n">
-        <v>460.26</v>
+        <v>422.54</v>
       </c>
       <c r="E40" t="n">
-        <v>2.824</v>
+        <v>5.156</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>460.26</v>
+        <v>430.22</v>
       </c>
       <c r="D41" t="n">
-        <v>555.91</v>
+        <v>530.78</v>
       </c>
       <c r="E41" t="n">
         <v>30</v>
@@ -1222,64 +1222,64 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>555.91</v>
+        <v>530.78</v>
       </c>
       <c r="D42" t="n">
-        <v>621.45</v>
+        <v>580.78</v>
       </c>
       <c r="E42" t="n">
-        <v>27.096</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>359.7</v>
+        <v>580.78</v>
       </c>
       <c r="D43" t="n">
-        <v>428.1</v>
+        <v>632.02</v>
       </c>
       <c r="E43" t="n">
-        <v>6.88</v>
+        <v>23.216</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>378.68</v>
+        <v>422.54</v>
       </c>
       <c r="D44" t="n">
-        <v>443.24</v>
+        <v>485.74</v>
       </c>
       <c r="E44" t="n">
-        <v>0.676</v>
+        <v>1.436</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>443.24</v>
+        <v>485.74</v>
       </c>
       <c r="D45" t="n">
-        <v>533.49</v>
+        <v>589.17</v>
       </c>
       <c r="E45" t="n">
         <v>30</v>
@@ -1298,40 +1298,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428.1</v>
+        <v>384.06</v>
       </c>
       <c r="D46" t="n">
-        <v>475.54</v>
+        <v>465.66</v>
       </c>
       <c r="E46" t="n">
-        <v>3.756</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>569.55</v>
+        <v>465.66</v>
       </c>
       <c r="D47" t="n">
-        <v>612.65</v>
+        <v>546.75</v>
       </c>
       <c r="E47" t="n">
-        <v>26.88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
@@ -1340,112 +1340,112 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>389.94</v>
+        <v>301</v>
       </c>
       <c r="D48" t="n">
-        <v>471.64</v>
+        <v>370.84</v>
       </c>
       <c r="E48" t="n">
-        <v>3.196</v>
+        <v>10.996</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>533.49</v>
+        <v>589.17</v>
       </c>
       <c r="D49" t="n">
-        <v>570.5700000000001</v>
+        <v>632.27</v>
       </c>
       <c r="E49" t="n">
-        <v>27.492</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>439.66</v>
+        <v>569.86</v>
       </c>
       <c r="D50" t="n">
-        <v>498.64</v>
+        <v>609.36</v>
       </c>
       <c r="E50" t="n">
-        <v>4.936</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>570.5700000000001</v>
+        <v>370.84</v>
       </c>
       <c r="D51" t="n">
-        <v>624.29</v>
+        <v>434.12</v>
       </c>
       <c r="E51" t="n">
-        <v>24.72</v>
+        <v>8.268000000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>475.54</v>
+        <v>546.75</v>
       </c>
       <c r="D52" t="n">
-        <v>531.48</v>
+        <v>591.37</v>
       </c>
       <c r="E52" t="n">
-        <v>0.272</v>
+        <v>27.228</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>531.48</v>
+        <v>434.12</v>
       </c>
       <c r="D53" t="n">
-        <v>597.9400000000001</v>
+        <v>491.26</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>4.684</v>
       </c>
     </row>
   </sheetData>
